--- a/Hust_Medical/wwwroot/reportTemplate/Báo cáo thống kê tổng hợp.xlsx
+++ b/Hust_Medical/wwwroot/reportTemplate/Báo cáo thống kê tổng hợp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anh.le5\source\repos\lequocanh2684\Patient_Health_Management_System\Hust_Medical\wwwroot\reportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1fff253904016965/Documents/GitHub/Patient_Health_Management_System/Hust_Medical/wwwroot/reportTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_B48B356A3ACC9D6A8688897E3C98754B3E77365C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{062A1B67-3837-4DFC-81BB-EE2800703382}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +31,6 @@
     <t>Ngày</t>
   </si>
   <si>
-    <t>BÁO CÁO THỐNG KÊ SỐ BỆNH NHÂN TRONG 1 THÁNG</t>
-  </si>
-  <si>
     <t>Thời gian:</t>
   </si>
   <si>
@@ -46,9 +44,6 @@
   </si>
   <si>
     <t>Đến:</t>
-  </si>
-  <si>
-    <t>BÁO CÁO THỐNG KÊ DOANH THU TRONG 1 THÁNG</t>
   </si>
   <si>
     <t>Doanh thu (đồng)</t>
@@ -74,11 +69,17 @@
   <si>
     <t>&amp;=RevenueEndTime</t>
   </si>
+  <si>
+    <t>BÁO CÁO THỐNG KÊ DOANH THU</t>
+  </si>
+  <si>
+    <t>BÁO CÁO THỐNG KÊ SỐ BỆNH NHÂN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,13 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -172,7 +169,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -391,7 +387,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -473,7 +468,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -692,7 +686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1862,7 +1855,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1897,7 +1896,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2177,11 +2182,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,52 +2199,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
+      <c r="E4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2253,11 +2253,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,53 +2271,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>7</v>
+      <c r="A1" s="2" t="s">
+        <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
